--- a/output/sites/clustering with PCs/clust_PCs_validity_measures_PS.xlsx
+++ b/output/sites/clustering with PCs/clust_PCs_validity_measures_PS.xlsx
@@ -410,22 +410,22 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.525</v>
+        <v>0.994</v>
       </c>
       <c r="E2" t="n">
-        <v>0.596</v>
+        <v>0.604</v>
       </c>
       <c r="F2" t="n">
-        <v>0.625</v>
+        <v>0.643</v>
       </c>
       <c r="G2" t="n">
-        <v>0.592</v>
+        <v>0.709</v>
       </c>
       <c r="H2" t="n">
-        <v>1.955</v>
+        <v>3.404</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
@@ -439,22 +439,22 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.469</v>
+        <v>0.78</v>
       </c>
       <c r="E3" t="n">
-        <v>0.542</v>
+        <v>0.561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.498</v>
+        <v>0.539</v>
       </c>
       <c r="G3" t="n">
-        <v>0.467</v>
+        <v>0.583</v>
       </c>
       <c r="H3" t="n">
-        <v>1.978</v>
+        <v>2.194</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
@@ -468,22 +468,22 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.525</v>
+        <v>0.78</v>
       </c>
       <c r="E4" t="n">
-        <v>0.889</v>
+        <v>0.859</v>
       </c>
       <c r="F4" t="n">
-        <v>0.865</v>
+        <v>0.896</v>
       </c>
       <c r="G4" t="n">
-        <v>0.44</v>
+        <v>0.347</v>
       </c>
       <c r="H4" t="n">
-        <v>2.352</v>
+        <v>2.226</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
@@ -497,22 +497,22 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.469</v>
+        <v>1.275</v>
       </c>
       <c r="E5" t="n">
-        <v>0.365</v>
+        <v>0.838</v>
       </c>
       <c r="F5" t="n">
-        <v>0.369</v>
+        <v>0.863</v>
       </c>
       <c r="G5" t="n">
-        <v>0.631</v>
+        <v>0.651</v>
       </c>
       <c r="H5" t="n">
-        <v>2.182</v>
+        <v>3.665</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
